--- a/Dokumente/Use - Case einsehen.xlsx
+++ b/Dokumente/Use - Case einsehen.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Use Case Name:</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Background:</t>
   </si>
   <si>
-    <t>&lt;The action or event(s) that gets the use case started&gt;</t>
-  </si>
-  <si>
     <t>Annotations</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>SYSTEM</t>
-  </si>
-  <si>
-    <t>&lt;App Name&gt;</t>
   </si>
   <si>
     <t>N/A</t>
@@ -195,17 +189,6 @@
   </si>
   <si>
     <t>Secondary Role (optional):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>&lt;Name&gt;</t>
   </si>
   <si>
     <t>Ia</t>
@@ -265,13 +248,48 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Der Student will sich mittels einer App über das angebotene Essen in der Mensa informieren. Hierdurch trifft er dann eine Entscheidung, welche auf den Bewertungen der anderen Studenten basiert und die Wahrscheinlichkeit, dass er mit seinem gewählten Essen zufrieden ist, steigt.</t>
-  </si>
-  <si>
-    <t>Bisher war der Student mit dem Essen welches er in der Mensa ausgesucht hat eher unzufrieden. Oft kann er den Geschmack der Speisen nur bedingt einschätzen. Er will keine weiteren Frustmomente erleben und verschiedene Speisen kaufen ohne vorher eine ungefähre Ahnung über deren Qualität und Geschmack zu haben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Student muss die FEATBACK App auf seinem Handy oder Pc installiert haben und </t>
+    <t xml:space="preserve">Fritz </t>
+  </si>
+  <si>
+    <t>Fritz will sich mittels einer App über das angebotene Essen in der Mensa informieren. Hierdurch trifft er dann eine Entscheidung, welche auf den Bewertungen der anderen Studenten basiert und die Wahrscheinlichkeit, dass er mit seinem gewählten Essen zufrieden ist, steigt.</t>
+  </si>
+  <si>
+    <t>Bisher war Fritz mit dem Essen welches er in der Mensa ausgesucht hat eher unzufrieden. Oft kann er den Geschmack der Speisen nur bedingt einschätzen. Er will keine weiteren Frustmomente erleben und verschiedene Speisen kaufen ohne vorher eine ungefähre Ahnung über deren Qualität und Geschmack zu haben.</t>
+  </si>
+  <si>
+    <t>Die FEATBACK App muss auf einem Handy oder Pc installiert sein, außerdem muss Fritz wissen wie er diese zu bedienen hat.</t>
+  </si>
+  <si>
+    <t>Fritz will sich konkret über die angebotenen Speisen in der Mensa informieren.</t>
+  </si>
+  <si>
+    <t>F-EAT-BACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Die App stellt dem Nutzer eine Übersicht aller angebotenen Speisen der Mensa für den aktuellen Tag zur Verfügung 
+</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt das Essen aus, über das er mehr erfahren will</t>
+  </si>
+  <si>
+    <t>Ausgewähltes Essen</t>
+  </si>
+  <si>
+    <t>Übersicht über alle angebotenen Speisen</t>
+  </si>
+  <si>
+    <t>Ic</t>
+  </si>
+  <si>
+    <t>Details des ausgewählten Essens, Bewertungen des gewählten Essens, Kommentare des gewählten Essens</t>
+  </si>
+  <si>
+    <t>Die App zeigt dem Nutzer alle Informationen zu dem ausgewählten Essen an</t>
+  </si>
+  <si>
+    <t>Der Nutzer kann basierend auf den Bewertungen, Kommentaren und Details  neue Entscheidungen treffen</t>
   </si>
 </sst>
 </file>
@@ -645,6 +663,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,15 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,15 +792,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -791,8 +809,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448300" y="6943725"/>
-          <a:ext cx="1123950" cy="781050"/>
+          <a:off x="5419725" y="8077200"/>
+          <a:ext cx="1123950" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -824,15 +842,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -841,58 +859,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5448301" y="7762875"/>
-          <a:ext cx="1104899" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="8667750"/>
-          <a:ext cx="1038225" cy="685800"/>
+          <a:off x="5419726" y="8705850"/>
+          <a:ext cx="1104899" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -924,15 +892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
+      <xdr:colOff>209552</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>733424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>675082</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:colOff>694132</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -941,8 +909,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190502" y="8620125"/>
-          <a:ext cx="484580" cy="2990850"/>
+          <a:off x="209552" y="6934199"/>
+          <a:ext cx="484580" cy="3171824"/>
           <a:chOff x="200027" y="7972425"/>
           <a:chExt cx="484580" cy="2752728"/>
         </a:xfrm>
@@ -1109,8 +1077,17 @@
               <a:rPr lang="de-DE" sz="1000">
                 <a:latin typeface="BentonSans Regular" panose="02000503000000020004" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>&lt;Reason for Iteration&gt;</a:t>
+              <a:t>Auswählen</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1000" baseline="0">
+                <a:latin typeface="BentonSans Regular" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t> eines anderen Speiseangebots</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1000">
+              <a:latin typeface="BentonSans Regular" panose="02000503000000020004" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1247,206 +1224,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="10325100"/>
-          <a:ext cx="1057275" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="9067800"/>
-          <a:ext cx="1038225" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5448301" y="9420225"/>
-          <a:ext cx="1104899" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5448302" y="11287125"/>
-          <a:ext cx="1085848" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2606,8 +2383,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2626,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2638,17 +2415,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2665,34 +2442,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -2709,96 +2486,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="B7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="B8" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="39" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="B11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -2815,20 +2592,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2917,18 +2694,18 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="B22" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -2943,35 +2720,39 @@
       <c r="I23" s="25"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="24" spans="1:10" ht="109.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="78" thickTop="1" thickBot="1">
+    <row r="25" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="12"/>
       <c r="B25" s="26">
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="E25" s="21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="7"/>
@@ -2979,31 +2760,35 @@
       <c r="I25" s="7"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="26" spans="1:10" ht="88.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G26" s="30">
         <v>3</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="31"/>
       <c r="B27" s="26">
         <v>4</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="3"/>
@@ -3013,30 +2798,22 @@
       <c r="I27" s="7"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="28" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A28" s="12"/>
       <c r="B28" s="6"/>
       <c r="C28" s="33"/>
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="30">
-        <v>5</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="29" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A29" s="31"/>
-      <c r="B29" s="26">
-        <v>6</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>37</v>
-      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="27"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3045,30 +2822,22 @@
       <c r="I29" s="25"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="30" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A30" s="12"/>
       <c r="B30" s="6"/>
       <c r="C30" s="33"/>
       <c r="D30" s="6"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="30">
-        <v>7</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="31" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A31" s="31"/>
-      <c r="B31" s="26">
-        <v>8</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>37</v>
-      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="27"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3077,19 +2846,15 @@
       <c r="I31" s="25"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="32" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A32" s="12"/>
       <c r="B32" s="6"/>
       <c r="C32" s="33"/>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="30">
-        <v>9</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="4"/>
     </row>
@@ -3131,28 +2896,28 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="B36" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="89.25" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
@@ -3217,14 +2982,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B36:I36"/>
@@ -3241,6 +2998,14 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
@@ -3279,7 +3044,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3291,17 +3056,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3318,34 +3083,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -3362,96 +3127,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="B7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="B8" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="B11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -3468,20 +3233,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3504,7 +3269,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -3573,24 +3338,24 @@
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -3604,29 +3369,29 @@
       <c r="C24" s="24"/>
       <c r="D24" s="6"/>
       <c r="E24" s="36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G24" s="30">
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A25" s="37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="21"/>
@@ -3640,7 +3405,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
@@ -3649,10 +3414,10 @@
         <v>3</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -3662,16 +3427,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="25"/>
       <c r="H27" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="4"/>
@@ -3687,10 +3452,10 @@
         <v>5</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -3700,10 +3465,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3723,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="4"/>
@@ -3734,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="3"/>
@@ -3782,28 +3547,28 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="B35" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="89.25" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
@@ -3868,15 +3633,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="G22:I22"/>
@@ -3893,6 +3649,15 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>

--- a/Dokumente/Use - Case einsehen.xlsx
+++ b/Dokumente/Use - Case einsehen.xlsx
@@ -663,47 +663,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2383,8 +2383,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2415,17 +2415,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2442,34 +2442,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -2486,96 +2486,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="39" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="41.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -2592,20 +2592,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="51" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2694,18 +2694,18 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -2896,28 +2896,28 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="89.25" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
@@ -2982,6 +2982,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B36:I36"/>
@@ -2998,14 +3006,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
@@ -3056,17 +3056,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3083,34 +3083,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -3127,96 +3127,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -3233,20 +3233,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="51" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3338,24 +3338,24 @@
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -3547,28 +3547,28 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="89.25" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
@@ -3633,6 +3633,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="G22:I22"/>
@@ -3649,15 +3658,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
